--- a/001.Document/구현기능리스트.xlsx
+++ b/001.Document/구현기능리스트.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\000.WORKSAPCE\006.WebRoot\001.ERD\001.Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D77829C-AA01-45E6-A1FD-F4CC7900174A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C28173-8AD6-443A-9412-732415C0B6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="1965" windowWidth="29040" windowHeight="15720" xr2:uid="{315FAD28-B7B7-41BF-94CB-6187DE0F521D}"/>
+    <workbookView xWindow="38280" yWindow="1965" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{315FAD28-B7B7-41BF-94CB-6187DE0F521D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>구분</t>
   </si>
@@ -129,9 +130,6 @@
   </si>
   <si>
     <t>4. 속성 편집</t>
-  </si>
-  <si>
-    <t>진행중 (🚧)</t>
   </si>
   <si>
     <t>패널 연동 (기초)</t>
@@ -188,13 +186,115 @@
   <si>
     <t>테이블 추가/삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접두어</t>
+  </si>
+  <si>
+    <t>의미</t>
+  </si>
+  <si>
+    <t>설명</t>
+  </si>
+  <si>
+    <t>예시</t>
+  </si>
+  <si>
+    <t>MST</t>
+  </si>
+  <si>
+    <t>Master (기준)</t>
+  </si>
+  <si>
+    <t>잘 변하지 않는 기준 정보 (사용자, 공통코드 등)</t>
+  </si>
+  <si>
+    <t>MST_USER</t>
+  </si>
+  <si>
+    <t>TRN</t>
+  </si>
+  <si>
+    <t>Transaction (행위)</t>
+  </si>
+  <si>
+    <t>업무 행위로 인해 계속 쌓이는 데이터 (프로젝트, 캔버스 데이터)</t>
+  </si>
+  <si>
+    <t>TRN_PROJECT</t>
+  </si>
+  <si>
+    <t>HIS</t>
+  </si>
+  <si>
+    <t>History (이력)</t>
+  </si>
+  <si>
+    <t>변경 이력, 로그 데이터</t>
+  </si>
+  <si>
+    <t>HIS_LOGIN</t>
+  </si>
+  <si>
+    <t>SYS</t>
+  </si>
+  <si>
+    <t>System (시스템)</t>
+  </si>
+  <si>
+    <t>시스템 설정, 메뉴 구조 등</t>
+  </si>
+  <si>
+    <t>SYS_CONFIG</t>
+  </si>
+  <si>
+    <t>코드</t>
+  </si>
+  <si>
+    <t>업무 영역</t>
+  </si>
+  <si>
+    <t>USR</t>
+  </si>
+  <si>
+    <t>User / Auth</t>
+  </si>
+  <si>
+    <t>회원, 권한, 인증 관련</t>
+  </si>
+  <si>
+    <t>PRJ</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>프로젝트 관리 관련</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>ERD Core</t>
+  </si>
+  <si>
+    <t>캔버스, 테이블, 컬럼, 관계선 데이터</t>
+  </si>
+  <si>
+    <t>CMM</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>공통 코드, 시스템 관리</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,21 +310,91 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444746"/>
+      <name val="Google Sans Text"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dashed">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dashed">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF000000"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -233,9 +403,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,295 +767,296 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC924EF-81D2-4F56-8A1A-6C72BA305180}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
+    <col min="1" max="1" width="18.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s">
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="C18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D19" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D20" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -869,4 +1064,152 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A1CBBB-9EED-405E-BC8F-D845E1F08133}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="32.375" customWidth="1"/>
+    <col min="4" max="4" width="36.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="85.5">
+      <c r="A2" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="114">
+      <c r="A3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="42.75">
+      <c r="A4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="42.75">
+      <c r="A5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17.25" thickBot="1"/>
+    <row r="10" spans="1:4" ht="17.25" thickBot="1">
+      <c r="A10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="43.5" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29.25" thickBot="1">
+      <c r="A12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="72" thickBot="1">
+      <c r="A13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="43.5" thickBot="1">
+      <c r="A14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>